--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pan_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pan_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,231 +394,231 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -706,9 +706,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -719,7 +727,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -739,271 +747,271 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -1011,7 +1019,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1019,7 +1027,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1027,7 +1035,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1035,7 +1043,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1043,7 +1051,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1051,9 +1059,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -1064,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1084,279 +1100,279 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1364,7 +1380,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1372,7 +1388,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1380,7 +1396,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1388,7 +1404,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1396,9 +1412,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -1409,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1429,279 +1453,279 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1709,7 +1733,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1717,7 +1741,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1725,7 +1749,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1733,7 +1757,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1741,9 +1765,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -1754,7 +1786,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1774,279 +1806,279 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -2054,7 +2086,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2062,7 +2094,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2070,7 +2102,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2078,7 +2110,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2086,9 +2118,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -2099,7 +2139,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2119,287 +2159,287 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2407,7 +2447,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2415,7 +2455,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2423,7 +2463,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2431,9 +2471,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -2444,7 +2492,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2464,287 +2512,287 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2752,7 +2800,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2760,7 +2808,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2768,7 +2816,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2776,9 +2824,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -2789,7 +2845,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2809,287 +2865,287 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -3097,7 +3153,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3105,7 +3161,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -3113,7 +3169,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -3121,9 +3177,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -3134,7 +3198,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3154,287 +3218,287 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -3442,7 +3506,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3450,7 +3514,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -3458,7 +3522,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -3466,9 +3530,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -3479,7 +3551,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3499,287 +3571,287 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -3787,7 +3859,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3795,7 +3867,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -3803,7 +3875,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -3811,9 +3883,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -3824,7 +3904,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3844,295 +3924,295 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4140,7 +4220,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -4148,7 +4228,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -4156,9 +4236,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -4169,7 +4257,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4189,231 +4277,231 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -4421,7 +4509,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -4429,7 +4517,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -4437,7 +4525,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -4445,7 +4533,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -4453,7 +4541,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -4461,7 +4549,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -4469,7 +4557,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -4477,7 +4565,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4485,7 +4573,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -4493,7 +4581,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -4501,9 +4589,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -4514,7 +4610,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4534,295 +4630,295 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4830,7 +4926,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -4838,7 +4934,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -4846,9 +4942,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -4859,7 +4963,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4879,295 +4983,295 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5175,7 +5279,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -5183,7 +5287,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -5191,9 +5295,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -5204,7 +5316,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5224,295 +5336,295 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5520,7 +5632,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -5528,7 +5640,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -5536,9 +5648,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -5549,7 +5669,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5569,295 +5689,295 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5865,7 +5985,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -5873,7 +5993,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -5881,9 +6001,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -5894,7 +6022,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5914,295 +6042,295 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6210,7 +6338,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -6218,7 +6346,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -6226,9 +6354,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -6239,7 +6375,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6259,239 +6395,239 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -6499,7 +6635,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -6507,7 +6643,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -6515,7 +6651,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -6523,7 +6659,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6531,7 +6667,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6539,7 +6675,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6547,7 +6683,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6555,7 +6691,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -6563,7 +6699,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -6571,9 +6707,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -6584,7 +6728,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6604,247 +6748,247 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -6852,7 +6996,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -6860,7 +7004,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -6868,7 +7012,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6876,7 +7020,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6884,7 +7028,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6892,7 +7036,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6900,7 +7044,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -6908,7 +7052,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -6916,9 +7060,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -6929,7 +7081,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6949,247 +7101,247 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -7197,7 +7349,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -7205,7 +7357,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -7213,7 +7365,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -7221,7 +7373,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -7229,7 +7381,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -7237,7 +7389,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -7245,7 +7397,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -7253,7 +7405,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -7261,9 +7413,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -7274,7 +7434,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7294,255 +7454,255 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -7550,7 +7710,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -7558,7 +7718,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -7566,7 +7726,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -7574,7 +7734,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -7582,7 +7742,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -7590,7 +7750,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -7598,7 +7758,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -7606,9 +7766,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -7619,7 +7787,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7639,263 +7807,263 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -7903,7 +8071,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -7911,7 +8079,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -7919,7 +8087,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -7927,7 +8095,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -7935,7 +8103,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -7943,7 +8111,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -7951,9 +8119,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -7964,7 +8140,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7984,263 +8160,263 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -8248,7 +8424,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -8256,7 +8432,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -8264,7 +8440,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -8272,7 +8448,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -8280,7 +8456,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -8288,7 +8464,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -8296,9 +8472,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -8309,7 +8493,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8329,271 +8513,271 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -8601,7 +8785,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -8609,7 +8793,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -8617,7 +8801,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -8625,7 +8809,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -8633,7 +8817,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -8641,9 +8825,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pan_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pan_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -549,7 +549,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -565,7 +565,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -589,7 +589,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
@@ -597,7 +597,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
@@ -605,7 +605,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
@@ -613,7 +613,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -790,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -806,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -814,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -822,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -830,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -838,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -846,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -862,7 +862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -870,7 +870,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -878,7 +878,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -886,7 +886,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -918,7 +918,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -926,7 +926,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -950,7 +950,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
@@ -990,7 +990,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1143,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -1151,7 +1151,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -1159,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1167,7 +1167,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -1175,7 +1175,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -1183,7 +1183,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -1191,7 +1191,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -1199,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -1207,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -1215,7 +1215,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -1223,7 +1223,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -1231,7 +1231,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -1263,7 +1263,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -1271,7 +1271,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -1279,7 +1279,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -1303,7 +1303,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1488,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -1496,7 +1496,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1568,7 +1568,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -1576,7 +1576,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -1584,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -1592,7 +1592,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -1600,7 +1600,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -1608,7 +1608,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -1616,7 +1616,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -1624,7 +1624,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -1632,7 +1632,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -1656,7 +1656,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -1881,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -1889,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -1897,7 +1897,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -1905,7 +1905,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -1913,7 +1913,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -1921,7 +1921,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -1929,7 +1929,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -1953,7 +1953,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -1961,7 +1961,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -1969,7 +1969,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -1977,7 +1977,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -2001,7 +2001,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
@@ -2009,7 +2009,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
@@ -2025,7 +2025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -2178,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -2210,7 +2210,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -2218,7 +2218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -2226,7 +2226,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -2234,7 +2234,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -2242,7 +2242,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -2250,7 +2250,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -2258,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -2266,7 +2266,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2274,7 +2274,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -2282,7 +2282,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -2290,7 +2290,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -2298,7 +2298,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -2306,7 +2306,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -2314,7 +2314,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -2338,7 +2338,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -2346,7 +2346,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -2354,7 +2354,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -2434,7 +2434,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -2555,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -2611,7 +2611,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -2619,7 +2619,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2627,7 +2627,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -2635,7 +2635,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -2643,7 +2643,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -2651,7 +2651,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -2659,7 +2659,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -2667,7 +2667,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -2675,7 +2675,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -2683,7 +2683,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -2691,7 +2691,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -2699,7 +2699,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -2715,7 +2715,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -2723,7 +2723,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
@@ -2739,7 +2739,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -2884,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -2924,7 +2924,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -2932,7 +2932,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -2940,7 +2940,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -2948,7 +2948,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -2956,7 +2956,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2964,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -2972,7 +2972,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -2980,7 +2980,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -2988,7 +2988,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -2996,7 +2996,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -3004,7 +3004,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -3012,7 +3012,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -3020,7 +3020,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -3028,7 +3028,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
@@ -3052,7 +3052,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -3060,7 +3060,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -3068,7 +3068,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -3084,7 +3084,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -3100,7 +3100,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -3229,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -3309,7 +3309,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -3317,7 +3317,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -3325,7 +3325,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -3333,7 +3333,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -3341,7 +3341,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -3349,7 +3349,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -3357,7 +3357,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -3365,7 +3365,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -3373,7 +3373,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -3381,7 +3381,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
@@ -3389,7 +3389,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -3397,7 +3397,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -3429,7 +3429,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -3445,7 +3445,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -3590,7 +3590,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -3622,7 +3622,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -3630,7 +3630,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -3638,7 +3638,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -3646,7 +3646,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -3654,7 +3654,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -3662,7 +3662,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -3670,7 +3670,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -3678,7 +3678,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -3686,7 +3686,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -3694,7 +3694,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -3734,7 +3734,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
@@ -3742,7 +3742,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -3750,7 +3750,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -3758,7 +3758,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -3766,7 +3766,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -3790,7 +3790,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
@@ -3806,7 +3806,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -3838,7 +3838,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
@@ -3854,7 +3854,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -3943,7 +3943,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -3951,7 +3951,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -3991,7 +3991,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -3999,7 +3999,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -4007,7 +4007,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -4015,7 +4015,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -4023,7 +4023,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -4031,7 +4031,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -4039,7 +4039,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -4047,7 +4047,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -4055,7 +4055,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -4063,7 +4063,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -4071,7 +4071,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -4079,7 +4079,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -4087,7 +4087,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -4119,7 +4119,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -4127,7 +4127,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -4207,7 +4207,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -4336,7 +4336,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -4344,7 +4344,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -4352,7 +4352,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -4360,7 +4360,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -4368,7 +4368,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -4376,7 +4376,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -4384,7 +4384,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -4392,7 +4392,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -4448,7 +4448,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -4464,7 +4464,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -4472,7 +4472,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -4480,7 +4480,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -4488,7 +4488,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
@@ -4496,7 +4496,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -4641,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -4657,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -4665,7 +4665,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -4705,7 +4705,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -4713,7 +4713,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -4721,7 +4721,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -4729,7 +4729,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -4737,7 +4737,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -4745,7 +4745,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -4753,7 +4753,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -4761,7 +4761,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -4769,7 +4769,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -4777,7 +4777,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -4785,7 +4785,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -4793,7 +4793,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -4801,7 +4801,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -4833,7 +4833,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -4841,7 +4841,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -4857,7 +4857,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
@@ -4889,7 +4889,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -4905,7 +4905,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -4994,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -5018,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -5066,7 +5066,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -5074,7 +5074,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -5082,7 +5082,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -5090,7 +5090,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -5098,7 +5098,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -5106,7 +5106,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -5114,7 +5114,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -5122,7 +5122,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -5130,7 +5130,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -5138,7 +5138,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -5146,7 +5146,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -5154,7 +5154,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -5162,7 +5162,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
@@ -5194,7 +5194,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -5226,7 +5226,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -5250,7 +5250,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -5347,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -5355,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -5371,7 +5371,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -5427,7 +5427,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -5435,7 +5435,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -5443,7 +5443,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -5451,7 +5451,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -5459,7 +5459,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -5467,7 +5467,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -5475,7 +5475,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -5483,7 +5483,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -5491,7 +5491,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -5499,7 +5499,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -5507,7 +5507,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -5515,7 +5515,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
@@ -5547,7 +5547,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -5603,7 +5603,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -5700,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -5708,7 +5708,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -5724,7 +5724,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -5772,7 +5772,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -5780,7 +5780,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -5788,7 +5788,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -5796,7 +5796,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -5804,7 +5804,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -5812,7 +5812,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -5820,7 +5820,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -5828,7 +5828,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -5836,7 +5836,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -5844,7 +5844,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -5852,7 +5852,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -5860,7 +5860,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -5868,7 +5868,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
@@ -5900,7 +5900,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -5932,7 +5932,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -5956,7 +5956,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -5964,7 +5964,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -6053,7 +6053,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -6069,7 +6069,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -6077,7 +6077,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -6117,7 +6117,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -6125,7 +6125,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -6133,7 +6133,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -6141,7 +6141,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -6149,7 +6149,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -6157,7 +6157,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -6165,7 +6165,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -6173,7 +6173,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -6181,7 +6181,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -6189,7 +6189,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -6197,7 +6197,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -6205,7 +6205,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -6213,7 +6213,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -6245,7 +6245,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -6293,7 +6293,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -6301,7 +6301,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -6317,7 +6317,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -6534,7 +6534,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -6590,7 +6590,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
@@ -6598,7 +6598,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
@@ -6606,7 +6606,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
@@ -6614,7 +6614,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -6622,7 +6622,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
@@ -6783,7 +6783,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -6791,7 +6791,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -6799,7 +6799,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -6807,7 +6807,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -6815,7 +6815,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -6823,7 +6823,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -6831,7 +6831,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -6839,7 +6839,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -6847,7 +6847,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -6855,7 +6855,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -6863,7 +6863,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -6871,7 +6871,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -6943,7 +6943,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -6951,7 +6951,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
@@ -6959,7 +6959,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -6967,7 +6967,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -6975,7 +6975,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -7200,7 +7200,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -7208,7 +7208,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -7216,7 +7216,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -7224,7 +7224,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -7232,7 +7232,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -7240,7 +7240,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
@@ -7304,7 +7304,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
@@ -7312,7 +7312,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -7320,7 +7320,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
@@ -7473,7 +7473,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -7481,7 +7481,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -7601,7 +7601,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
@@ -7609,7 +7609,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -7665,7 +7665,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -7673,7 +7673,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -7689,7 +7689,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
@@ -7842,7 +7842,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -7850,7 +7850,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -7858,7 +7858,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -7866,7 +7866,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -7874,7 +7874,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -7882,7 +7882,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -7890,7 +7890,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -7898,7 +7898,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -7906,7 +7906,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -7914,7 +7914,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -7922,7 +7922,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -7970,7 +7970,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -8203,7 +8203,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -8211,7 +8211,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -8219,7 +8219,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -8227,7 +8227,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -8235,7 +8235,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -8243,7 +8243,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -8251,7 +8251,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -8259,7 +8259,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -8267,7 +8267,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -8275,7 +8275,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -8283,7 +8283,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
@@ -8291,7 +8291,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -8331,7 +8331,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -8371,7 +8371,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -8516,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -8556,7 +8556,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -8564,7 +8564,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -8572,7 +8572,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -8580,7 +8580,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -8588,7 +8588,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -8596,7 +8596,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -8604,7 +8604,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -8612,7 +8612,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -8620,7 +8620,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
@@ -8628,7 +8628,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
@@ -8636,7 +8636,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -8644,7 +8644,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -8652,7 +8652,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -8684,7 +8684,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -8692,7 +8692,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -8772,7 +8772,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
